--- a/premise/data/additional_inventories/lci-hydrogen-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-wood-gasification.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5" iterateDelta="0.01"/>
 </workbook>
 </file>
 
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/premise/data/additional_inventories/lci-hydrogen-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-wood-gasification.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5" iterateDelta="0.01"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -94,9 +94,6 @@
     <t>categories</t>
   </si>
   <si>
-    <t>Carbon dioxide, from soil or biomass stock</t>
-  </si>
-  <si>
     <t>biosphere3</t>
   </si>
   <si>
@@ -130,15 +127,9 @@
     <t>water, deionised</t>
   </si>
   <si>
-    <t>market for wood chips, wet, measured as dry mass, CF = -1</t>
-  </si>
-  <si>
     <t>Elegancy</t>
   </si>
   <si>
-    <t>wood chips, wet, measured as dry mass, CF = -1</t>
-  </si>
-  <si>
     <t>ENTSO-E</t>
   </si>
   <si>
@@ -242,6 +233,15 @@
   </si>
   <si>
     <t>hydrogen production, gaseous, 25 bar, from heatpipe reformer gasification of woody biomass with CCS, at gasification plant</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil</t>
+  </si>
+  <si>
+    <t>market for wood chips, wet, measured as dry mass</t>
+  </si>
+  <si>
+    <t>wood chips, wet, measured as dry mass</t>
   </si>
 </sst>
 </file>
@@ -598,31 +598,31 @@
   <dimension ref="A1:M345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.5546875" customWidth="1"/>
+    <col min="1" max="1" width="99.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -638,15 +638,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -654,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -662,12 +662,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -687,30 +687,30 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -731,15 +731,15 @@
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>2.4200000000000002E-12</v>
@@ -751,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -766,18 +766,18 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>2.4200000000000002E-12</v>
@@ -789,7 +789,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -804,18 +804,18 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" s="4">
         <f>6.32/120</f>
@@ -828,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -843,7 +843,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -852,9 +852,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -866,7 +866,7 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -881,24 +881,24 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -906,7 +906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -914,15 +914,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -930,7 +930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -938,12 +938,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -963,30 +963,30 @@
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s">
         <v>10</v>
       </c>
       <c r="L24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -998,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -1007,15 +1007,15 @@
         <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>2.4200000000000002E-12</v>
@@ -1027,7 +1027,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -1042,18 +1042,18 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>2.4200000000000002E-12</v>
@@ -1065,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -1080,18 +1080,18 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B28" s="4">
         <f>6.32/120</f>
@@ -1104,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -1119,7 +1119,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1128,9 +1128,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1142,7 +1142,7 @@
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -1157,24 +1157,24 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1190,15 +1190,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1214,12 +1214,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -1239,30 +1239,30 @@
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s">
         <v>10</v>
       </c>
       <c r="L38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -1283,15 +1283,15 @@
         <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40">
         <v>2.4200000000000002E-12</v>
@@ -1303,7 +1303,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -1318,18 +1318,18 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41">
         <v>2.4200000000000002E-12</v>
@@ -1341,7 +1341,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -1356,18 +1356,18 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B42" s="4">
         <f>6.32/120</f>
@@ -1380,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -1395,7 +1395,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -1404,9 +1404,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1418,7 +1418,7 @@
         <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -1433,24 +1433,24 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>24</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>1.8132045976445506</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>1</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>7</v>
       </c>
@@ -1482,28 +1482,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>12</v>
       </c>
@@ -1529,9 +1529,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B54" s="7">
         <v>1</v>
@@ -1552,35 +1552,35 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B55" s="7">
         <v>7.9363849999999996</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="H55" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B56" s="7">
         <v>10.689909999999999</v>
@@ -1598,18 +1598,18 @@
         <v>17</v>
       </c>
       <c r="H56" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="B57" s="7">
         <v>2.54628E-9</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>23</v>
@@ -1621,21 +1621,21 @@
         <v>17</v>
       </c>
       <c r="H57" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="B58" s="7">
         <v>15.77786</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>8</v>
@@ -1644,21 +1644,21 @@
         <v>17</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B59" s="7">
         <v>10.284599999999999</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>8</v>
@@ -1667,10 +1667,10 @@
         <v>17</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>19</v>
       </c>
@@ -1678,10 +1678,10 @@
         <v>1.841294</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>21</v>
@@ -1693,15 +1693,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B61" s="7">
         <v>5.3483199147628007E-10</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>2</v>
@@ -1713,21 +1713,21 @@
         <v>17</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B62" s="7">
         <v>2.8615461179087874E-7</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>8</v>
@@ -1736,43 +1736,43 @@
         <v>17</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>7.3980000000000001E-3</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="s">
         <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:8" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>24</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>1.8132045976445506</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>1</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>4</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>7</v>
       </c>
@@ -1804,28 +1804,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>12</v>
       </c>
@@ -1851,9 +1851,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B74" s="7">
         <v>1</v>
@@ -1874,41 +1874,41 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B75" s="7">
         <v>18.626139999999999</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="H75" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B76" s="7">
         <v>2.54628E-9</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>23</v>
@@ -1920,21 +1920,21 @@
         <v>17</v>
       </c>
       <c r="H76" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="B77" s="7">
         <v>15.77765</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>8</v>
@@ -1943,21 +1943,21 @@
         <v>17</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B78" s="7">
         <v>10.284599999999999</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>8</v>
@@ -1966,10 +1966,10 @@
         <v>17</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>19</v>
       </c>
@@ -1977,10 +1977,10 @@
         <v>1.892684</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>21</v>
@@ -1992,15 +1992,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B80" s="7">
         <v>5.3483199147628007E-10</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>2</v>
@@ -2012,21 +2012,21 @@
         <v>17</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B81" s="7">
         <v>2.8615461179087874E-7</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>8</v>
@@ -2035,43 +2035,43 @@
         <v>17</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B82">
         <v>7.3980000000000001E-3</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="s">
         <v>17</v>
       </c>
       <c r="H82" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>1.4983549435621251</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2103,28 +2103,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -2150,9 +2150,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -2173,35 +2173,35 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B94">
         <v>1.5237000000000001</v>
       </c>
       <c r="C94" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" t="s">
         <v>27</v>
-      </c>
-      <c r="D94" t="s">
-        <v>28</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
       </c>
       <c r="F94" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" t="s">
         <v>29</v>
       </c>
-      <c r="G94" t="s">
-        <v>30</v>
-      </c>
       <c r="H94" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B95">
         <v>19.585570000000001</v>
@@ -2219,18 +2219,18 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>33</v>
       </c>
       <c r="B96">
         <v>2.54628E-9</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D96" t="s">
         <v>23</v>
@@ -2242,21 +2242,21 @@
         <v>17</v>
       </c>
       <c r="H96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>36</v>
       </c>
       <c r="B97">
         <v>15.92628</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
@@ -2265,21 +2265,21 @@
         <v>17</v>
       </c>
       <c r="H97" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B98">
         <v>11.6966</v>
       </c>
       <c r="C98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D98" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
@@ -2288,10 +2288,10 @@
         <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -2299,10 +2299,10 @@
         <v>-1.3416399999999999</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E99" t="s">
         <v>21</v>
@@ -2314,18 +2314,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B100">
         <v>5.3483199147628007E-10</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D100" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E100" t="s">
         <v>7</v>
@@ -2334,41 +2334,41 @@
         <v>17</v>
       </c>
       <c r="H100" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B101">
         <v>1.2439E-2</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D101" t="s">
+        <v>62</v>
+      </c>
+      <c r="E101" t="s">
+        <v>30</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
         <v>65</v>
       </c>
-      <c r="E101" t="s">
-        <v>31</v>
-      </c>
-      <c r="G101" t="s">
-        <v>17</v>
-      </c>
-      <c r="H101" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>24</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>1.4983549435621251</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -2400,28 +2400,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -2447,9 +2447,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -2470,41 +2470,41 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B113">
         <v>21.1966</v>
       </c>
       <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
         <v>27</v>
-      </c>
-      <c r="D113" t="s">
-        <v>28</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
       </c>
       <c r="F113" t="s">
+        <v>28</v>
+      </c>
+      <c r="G113" t="s">
         <v>29</v>
       </c>
-      <c r="G113" t="s">
-        <v>30</v>
-      </c>
       <c r="H113" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B114">
         <v>2.54628E-9</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
         <v>23</v>
@@ -2516,21 +2516,21 @@
         <v>17</v>
       </c>
       <c r="H114" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>36</v>
       </c>
       <c r="B115">
         <v>15.905519999999999</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D115" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
@@ -2539,21 +2539,21 @@
         <v>17</v>
       </c>
       <c r="H115" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B116">
         <v>11.6966</v>
       </c>
       <c r="C116" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D116" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
@@ -2562,10 +2562,10 @@
         <v>17</v>
       </c>
       <c r="H116" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -2573,10 +2573,10 @@
         <v>-1.031E-2</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D117" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E117" t="s">
         <v>21</v>
@@ -2588,18 +2588,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B118">
         <v>5.3483199147628007E-10</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E118" t="s">
         <v>7</v>
@@ -2608,100 +2608,100 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B119">
         <v>1.2439E-2</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119" t="s">
+        <v>30</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" t="s">
         <v>65</v>
       </c>
-      <c r="E119" t="s">
-        <v>31</v>
-      </c>
-      <c r="G119" t="s">
-        <v>17</v>
-      </c>
-      <c r="H119" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
     </row>
-    <row r="140" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
     </row>
-    <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
     </row>
-    <row r="162" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
     </row>
-    <row r="184" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
     </row>
-    <row r="190" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
     </row>
-    <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
     </row>
-    <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
     </row>
-    <row r="228" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
     </row>
-    <row r="234" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
     </row>
-    <row r="256" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
     </row>
-    <row r="262" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
     </row>
-    <row r="284" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
     </row>
-    <row r="290" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
     </row>
-    <row r="311" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
     </row>
-    <row r="317" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
     </row>
-    <row r="339" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
     </row>
-    <row r="345" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-hydrogen-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-wood-gasification.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE99F747-9AC6-7841-8845-7A5B5F8FBC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$303</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -190,9 +206,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -246,16 +262,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,19 +552,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B304" sqref="B304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="99.5546875" customWidth="1"/>
+    <col min="1" max="1" width="99.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -555,7 +572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -563,7 +580,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -571,7 +588,7 @@
         <v>1.8132045976445506</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -579,7 +596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -587,7 +604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -595,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -603,7 +620,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -611,12 +628,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -642,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
@@ -665,7 +682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>54</v>
       </c>
@@ -691,7 +708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -714,7 +731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
@@ -737,7 +754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
@@ -760,7 +777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
@@ -783,7 +800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -806,7 +823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
@@ -829,12 +846,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="6">
-        <v>2.8615461179087874E-7</v>
+      <c r="B20" s="9">
+        <v>-2.8615461179087901E-7</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>31</v>
@@ -852,12 +869,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
       <c r="B21">
-        <v>7.3980000000000001E-3</v>
+        <v>-7.3980000000000001E-3</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -876,8 +893,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
@@ -885,7 +902,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -893,7 +910,7 @@
         <v>1.8132045976445506</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>1</v>
       </c>
@@ -901,7 +918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
@@ -909,7 +926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
@@ -917,7 +934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>7</v>
       </c>
@@ -925,7 +942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -933,12 +950,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
@@ -964,7 +981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>52</v>
       </c>
@@ -987,7 +1004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>54</v>
       </c>
@@ -1013,7 +1030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
@@ -1036,7 +1053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
@@ -1059,7 +1076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>55</v>
       </c>
@@ -1082,7 +1099,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>17</v>
       </c>
@@ -1105,7 +1122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
@@ -1128,12 +1145,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="6">
-        <v>2.8615461179087874E-7</v>
+      <c r="B39" s="9">
+        <v>-2.8615461179087901E-7</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>31</v>
@@ -1151,12 +1168,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
       <c r="B40">
-        <v>7.3980000000000001E-3</v>
+        <v>-7.3980000000000001E-3</v>
       </c>
       <c r="C40" t="s">
         <v>31</v>
@@ -1175,8 +1192,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1201,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -1192,7 +1209,7 @@
         <v>1.4983549435621251</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -1200,7 +1217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1208,7 +1225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1216,7 +1233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1224,7 +1241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1232,12 +1249,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1263,7 +1280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -1286,7 +1303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1312,7 +1329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -1335,7 +1352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -1358,7 +1375,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -1381,7 +1398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1404,7 +1421,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1427,7 +1444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -1450,12 +1467,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>45</v>
       </c>
       <c r="B59">
-        <v>1.2439E-2</v>
+        <v>-1.2439E-2</v>
       </c>
       <c r="C59" t="s">
         <v>31</v>
@@ -1473,7 +1490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -1489,7 +1506,7 @@
         <v>1.4983549435621251</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -1497,7 +1514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1505,7 +1522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1513,7 +1530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1521,7 +1538,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -1529,12 +1546,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -1560,7 +1577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>50</v>
       </c>
@@ -1583,7 +1600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -1609,7 +1626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -1632,7 +1649,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -1655,7 +1672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>55</v>
       </c>
@@ -1678,7 +1695,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -1701,7 +1718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -1724,12 +1741,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>45</v>
       </c>
       <c r="B77">
-        <v>1.2439E-2</v>
+        <v>-1.2439E-2</v>
       </c>
       <c r="C77" t="s">
         <v>31</v>
@@ -1747,77 +1764,78 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="86" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
     </row>
-    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
     </row>
-    <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
     </row>
-    <row r="142" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="148" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
     </row>
-    <row r="171" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
     </row>
-    <row r="177" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
     </row>
-    <row r="186" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="192" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
     </row>
-    <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
     </row>
-    <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
     </row>
-    <row r="242" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
     </row>
-    <row r="248" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
     </row>
-    <row r="269" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
     </row>
-    <row r="275" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
     </row>
-    <row r="297" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
     </row>
-    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H303" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/premise/data/additional_inventories/lci-hydrogen-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-wood-gasification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE99F747-9AC6-7841-8845-7A5B5F8FBC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8B3159-B829-214A-BD2A-3CF8F69612E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$303</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -80,9 +80,6 @@
     <t>technosphere</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 25 bar</t>
-  </si>
-  <si>
     <t>market group for electricity, low voltage</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>wood chips, wet, measured as dry mass</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 25 bar</t>
   </si>
 </sst>
 </file>
@@ -262,17 +262,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B304" sqref="B304"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -566,644 +563,640 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.8132045976445506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1.8132045976445506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="B13">
+        <v>7.9363849999999996</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>10.689909999999999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>2.54628E-9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>15.77786</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>10.284599999999999</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1.841294</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>5.3483199147628007E-10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="6">
+        <v>-2.8615461179087901E-7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="6">
-        <v>7.9363849999999996</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="6">
-        <v>10.689909999999999</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="6">
-        <v>2.54628E-9</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="6">
-        <v>15.77786</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="6">
-        <v>10.284599999999999</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1.841294</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="6">
-        <v>5.3483199147628007E-10</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="9">
-        <v>-2.8615461179087901E-7</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>-7.3980000000000001E-3</v>
       </c>
       <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>1.8132045976445506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33">
+        <v>18.626139999999999</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>2.54628E-9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
         <v>31</v>
       </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21"/>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>15.77765</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36">
+        <v>10.284599999999999</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>1.892684</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>5.3483199147628007E-10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1.8132045976445506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="B39" s="6">
+        <v>-2.8615461179087901E-7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="6">
-        <v>1</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="6">
-        <v>18.626139999999999</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="6">
-        <v>2.54628E-9</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6">
-        <v>15.77765</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="6">
-        <v>10.284599999999999</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="6">
-        <v>1.892684</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6">
-        <v>5.3483199147628007E-10</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="6" t="s">
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="9">
-        <v>-2.8615461179087901E-7</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>-7.3980000000000001E-3</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40"/>
+        <v>27</v>
+      </c>
       <c r="G40" t="s">
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>45</v>
+      </c>
+    </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="4">
         <v>1.4983549435621251</v>
@@ -1214,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1222,7 +1215,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1238,7 +1231,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -1246,7 +1239,7 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1271,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G50" t="s">
         <v>4</v>
@@ -1282,7 +1275,7 @@
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1291,7 +1284,7 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
@@ -1300,38 +1293,38 @@
         <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>1.5237000000000001</v>
       </c>
       <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
         <v>24</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
         <v>25</v>
       </c>
-      <c r="E52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>26</v>
       </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
       <c r="H52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>19.585570000000001</v>
@@ -1340,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -1349,21 +1342,21 @@
         <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <v>2.54628E-9</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54" t="s">
         <v>5</v>
@@ -1372,21 +1365,21 @@
         <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55">
         <v>15.92628</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
@@ -1395,21 +1388,21 @@
         <v>15</v>
       </c>
       <c r="H55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>11.6966</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E56" t="s">
         <v>6</v>
@@ -1418,44 +1411,44 @@
         <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57">
         <v>-1.3416399999999999</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
         <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58">
         <v>5.3483199147628007E-10</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
@@ -1464,30 +1457,30 @@
         <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59">
         <v>-1.2439E-2</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G59" t="s">
         <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1495,12 +1488,12 @@
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B62">
         <v>1.4983549435621251</v>
@@ -1511,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -1519,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -1535,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -1543,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1568,7 +1561,7 @@
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G69" t="s">
         <v>4</v>
@@ -1579,7 +1572,7 @@
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1588,7 +1581,7 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70" t="s">
         <v>6</v>
@@ -1597,47 +1590,47 @@
         <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B71">
         <v>21.1966</v>
       </c>
       <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
         <v>24</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
         <v>25</v>
       </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>26</v>
       </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
       <c r="H71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B72">
         <v>2.54628E-9</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
@@ -1646,21 +1639,21 @@
         <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73">
         <v>15.905519999999999</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E73" t="s">
         <v>6</v>
@@ -1669,21 +1662,21 @@
         <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B74">
         <v>11.6966</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E74" t="s">
         <v>6</v>
@@ -1692,44 +1685,44 @@
         <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75">
         <v>-1.031E-2</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" t="s">
         <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B76">
         <v>5.3483199147628007E-10</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -1738,30 +1731,30 @@
         <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B77">
         <v>-1.2439E-2</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G77" t="s">
         <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-hydrogen-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-wood-gasification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8B3159-B829-214A-BD2A-3CF8F69612E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D85532-439E-2148-8043-493F780468E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$303</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -116,9 +116,6 @@
     <t>cubic meter</t>
   </si>
   <si>
-    <t>CO2 storage/at H2 production plant, pre, pipeline 200km, storage 1000m</t>
-  </si>
-  <si>
     <t>market for liquid storage tank, chemicals, organics</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>hydrogen, gaseous, 25 bar</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured at hydrogen production plant, pre, pipeline 200km, storage 1000m</t>
   </si>
 </sst>
 </file>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -563,10 +563,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -614,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -622,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -658,7 +658,7 @@
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -676,12 +676,12 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>7.9363849999999996</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>10.689909999999999</v>
@@ -725,18 +725,18 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>2.54628E-9</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -748,21 +748,21 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>15.77786</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -771,21 +771,21 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>10.284599999999999</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -794,7 +794,7 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -805,10 +805,10 @@
         <v>1.841294</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -822,13 +822,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>5.3483199147628007E-10</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -840,21 +840,21 @@
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="6">
         <v>-2.8615461179087901E-7</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -863,21 +863,21 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>-7.3980000000000001E-3</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
         <v>27</v>
@@ -886,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -918,7 +918,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -934,7 +934,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -942,7 +942,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -978,7 +978,7 @@
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -996,12 +996,12 @@
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>18.626139999999999</v>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34">
         <v>2.54628E-9</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
@@ -1045,21 +1045,21 @@
         <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>15.77765</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1068,21 +1068,21 @@
         <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>10.284599999999999</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
@@ -1091,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1102,10 +1102,10 @@
         <v>1.892684</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>5.3483199147628007E-10</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
@@ -1137,21 +1137,21 @@
         <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="6">
         <v>-2.8615461179087901E-7</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1160,21 +1160,21 @@
         <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>-7.3980000000000001E-3</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
         <v>27</v>
@@ -1183,7 +1183,7 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1231,7 +1231,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -1239,7 +1239,7 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1275,7 +1275,7 @@
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1293,12 +1293,12 @@
         <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>1.5237000000000001</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>19.585570000000001</v>
@@ -1342,18 +1342,18 @@
         <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <v>2.54628E-9</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
         <v>20</v>
@@ -1365,21 +1365,21 @@
         <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>15.92628</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
@@ -1388,21 +1388,21 @@
         <v>15</v>
       </c>
       <c r="H55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <v>11.6966</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
         <v>6</v>
@@ -1411,7 +1411,7 @@
         <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -1422,10 +1422,10 @@
         <v>-1.3416399999999999</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
@@ -1439,16 +1439,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>5.3483199147628007E-10</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
@@ -1457,21 +1457,21 @@
         <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59">
         <v>-1.2439E-2</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
         <v>27</v>
@@ -1480,7 +1480,7 @@
         <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -1512,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -1528,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -1536,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1572,7 +1572,7 @@
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1590,12 +1590,12 @@
         <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B71">
         <v>21.1966</v>
@@ -1621,13 +1621,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B72">
         <v>2.54628E-9</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
         <v>20</v>
@@ -1639,21 +1639,21 @@
         <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B73">
         <v>15.905519999999999</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
         <v>6</v>
@@ -1662,21 +1662,21 @@
         <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74">
         <v>11.6966</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E74" t="s">
         <v>6</v>
@@ -1685,7 +1685,7 @@
         <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -1696,10 +1696,10 @@
         <v>-1.031E-2</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E75" t="s">
         <v>18</v>
@@ -1713,16 +1713,16 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B76">
         <v>5.3483199147628007E-10</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -1731,21 +1731,21 @@
         <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77">
         <v>-1.2439E-2</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E77" t="s">
         <v>27</v>
@@ -1754,7 +1754,7 @@
         <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-hydrogen-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-wood-gasification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D85532-439E-2148-8043-493F780468E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E0566F-DD85-6E4D-B34C-924E67EDF89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$303</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1419,7 +1419,7 @@
         <v>16</v>
       </c>
       <c r="B57">
-        <v>-1.3416399999999999</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -1693,7 +1693,7 @@
         <v>16</v>
       </c>
       <c r="B75">
-        <v>-1.031E-2</v>
+        <v>0</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>

--- a/premise/data/additional_inventories/lci-hydrogen-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-wood-gasification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E0566F-DD85-6E4D-B34C-924E67EDF89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B19DDBE-ADCA-E742-BF6F-1C0C980A861E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$299</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="57">
   <si>
     <t>Activity</t>
   </si>
@@ -53,9 +53,6 @@
     <t>kilogram</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>Hydrogen from woody biomass gasification</t>
   </si>
   <si>
-    <t>ELEGANCY project, Techno-environmental assessment of biomass to hydrogen for use in the Swiss transport sector, Karin Treyer, Cristina Antonini et al, 2020, https://doi.org/10.1039/D0SE00222D</t>
-  </si>
-  <si>
     <t>Europe without Switzerland</t>
   </si>
   <si>
@@ -170,12 +164,6 @@
     <t>treatment of wood ash mixture, pure, municipal incineration</t>
   </si>
   <si>
-    <t>entrained flow gasifier with dry biomass (wood chips) from Europe as feedstock.</t>
-  </si>
-  <si>
-    <t>Steam-blown dual fluidized bed gasifier with dry biomass (wood chips) from Europe as feedstock.</t>
-  </si>
-  <si>
     <t>hydrogen production, gaseous, 25 bar, from gasification of woody biomass in entrained flow gasifier, at gasification plant</t>
   </si>
   <si>
@@ -201,6 +189,18 @@
   </si>
   <si>
     <t>carbon dioxide, captured at hydrogen production plant, pre, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>The entrained flow gasifier (EF) with CCS operates under high pressure (40 bar) and elevated temperatures (1623 K), utilizing oxygen as the gasification agent. This technology requires extensive biomass pretreatment, including drying, torrefaction, and pulverization to achieve particle sizes under 0.5 mm. The resulting product gas is rich in carbon monoxide (approximately 60 mol%) and free from hydrocarbons like methane and tar, eliminating the need for tar catalytic reforming. Following gasification, the syngas undergoes a water-gas shift process and is then subjected to CO2 capture using an amine-based absorption process with a capture efficiency of 98%. The captured CO2 is dehydrated and compressed for storage. The EF configuration demonstrates high carbon capture potential, achieving an overall CO2 capture rate of about 98%, but requires significant energy inputs for biomass preparation and system operations​. Source: Antonini, Cristina and Treyer, Karin and Moioli, Emanuele and Bauer, Christian and Schildhauer, Tilman J. and Mazzotti, Marco. Hydrogen from wood gasification with CCS – a techno-environmental analysis of production and use as transport fuel. Sustainable Energy Fuels, 2021. http://dx.doi.org/10.1039/D0SE01637C.</t>
+  </si>
+  <si>
+    <t>The entrained flow gasifier (EF) without CCS also operates at high pressure (40 bar) and elevated temperature (1623 K) using oxygen as the gasification agent. Like its CCS counterpart, it necessitates thorough biomass pretreatment, including drying, torrefaction, and pulverization to achieve particle sizes under 0.5 mm. The syngas produced is rich in carbon monoxide (around 60 mol%) and free from hydrocarbons, eliminating the need for tar reforming or steam methane reforming. After gasification, the syngas passes through a water-gas shift section to increase hydrogen yield. However, without CCS, the CO2 generated during the process is emitted directly. The electricity balance benefits from the lack of a CO2 capture unit, but overall greenhouse gas emissions are slightly positive due to these direct CO2 emissions, offset only partially by the biogenic origin of the CO2. Source: Antonini, Cristina and Treyer, Karin and Moioli, Emanuele and Bauer, Christian and Schildhauer, Tilman J. and Mazzotti, Marco. Hydrogen from wood gasification with CCS – a techno-environmental analysis of production and use as transport fuel. Sustainable Energy Fuels, 2021. http://dx.doi.org/10.1039/D0SE01637C.</t>
+  </si>
+  <si>
+    <t>The heat pipe reformer (HPR) is an indirectly heated gasification technology operating at high pressure (up to 10 bar) with steam as the gasification agent. The system consists of two separate reactors: a gasification reactor and a combustion reactor, connected by heat pipes that transfer heat from the combustion of char and additional biomass to drive the endothermic gasification reactions. The syngas produced is rich in hydrogen (around 44 mol%) but also contains carbon monoxide (26 mol%) and methane (12 mol%), necessitating downstream catalytic reforming and a water-gas shift (WGS) process to increase hydrogen yield. Without CCS, CO2 emissions from the system, including those from the combustion reactor, are released into the atmosphere. While the system benefits from efficient heat integration and nitrogen-free syngas due to the indirect heating, its climate impact remains positive without the additional carbon capture step, as biogenic CO2 from the process is not sequestered. Source: Antonini, Cristina and Treyer, Karin and Moioli, Emanuele and Bauer, Christian and Schildhauer, Tilman J. and Mazzotti, Marco. Hydrogen from wood gasification with CCS – a techno-environmental analysis of production and use as transport fuel. Sustainable Energy Fuels, 2021. http://dx.doi.org/10.1039/D0SE01637C.</t>
+  </si>
+  <si>
+    <t>The heat pipe reformer (HPR) with CCS operates as an indirectly heated gasifier, utilizing steam as the gasification agent and functioning at pressures up to 10 bar. Heat is transferred from the combustion reactor, where char and additional biomass are combusted, to the gasification reactor via heat pipes. The produced syngas, rich in hydrogen (about 44 mol%), contains carbon monoxide (26 mol%) and methane (12 mol%), requiring further processing through catalytic reforming and a water-gas shift (WGS) section to maximize hydrogen output. The HPR system incorporates a pre-combustion CO2 capture unit that efficiently separates CO2 from the syngas using an amine-based absorption process. This setup achieves a CO2 capture rate of approximately 60%, with the captured CO2 dehydrated, compressed, and stored. By sequestering biogenic CO2, the system achieves negative lifecycle greenhouse gas emissions, enhancing its environmental performance while maintaining efficient energy integration.  Source: Antonini, Cristina and Treyer, Karin and Moioli, Emanuele and Bauer, Christian and Schildhauer, Tilman J. and Mazzotti, Marco. Hydrogen from wood gasification with CCS – a techno-environmental analysis of production and use as transport fuel. Sustainable Energy Fuels, 2021. http://dx.doi.org/10.1039/D0SE01637C.</t>
   </si>
 </sst>
 </file>
@@ -550,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H303"/>
+  <dimension ref="A1:H299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -563,10 +563,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -574,12 +574,12 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
         <v>1.8132045976445506</v>
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -614,69 +614,87 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>7.9363849999999996</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -684,160 +702,157 @@
         <v>52</v>
       </c>
       <c r="B13">
-        <v>7.9363849999999996</v>
+        <v>10.689909999999999</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>10.689909999999999</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15">
-        <v>2.54628E-9</v>
+        <v>15.77786</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B16">
-        <v>15.77786</v>
+        <v>10.284599999999999</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>10.284599999999999</v>
+        <v>1.841294</v>
       </c>
       <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>1.841294</v>
+        <v>5.3483199147628007E-10</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19">
-        <v>5.3483199147628007E-10</v>
+        <v>43</v>
+      </c>
+      <c r="B19" s="6">
+        <v>-2.8615461179087901E-7</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -845,743 +860,791 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="6">
-        <v>-2.8615461179087901E-7</v>
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>-7.3980000000000001E-3</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21">
-        <v>-7.3980000000000001E-3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>50</v>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>1.8132045976445506</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>1.8132045976445506</v>
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>18.626139999999999</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>2.54628E-9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
         <v>5</v>
       </c>
-      <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
       <c r="G32" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>18.626139999999999</v>
+        <v>15.77765</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
       </c>
-      <c r="F33" t="s">
-        <v>25</v>
-      </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B34">
-        <v>2.54628E-9</v>
+        <v>10.284599999999999</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>15.77765</v>
+        <v>1.892684</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>10.284599999999999</v>
+        <v>5.3483199147628007E-10</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <v>1.892684</v>
+        <v>43</v>
+      </c>
+      <c r="B37" s="6">
+        <v>-2.8615461179087901E-7</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>5.3483199147628007E-10</v>
+        <v>-7.3980000000000001E-3</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="6">
-        <v>-2.8615461179087901E-7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40">
-        <v>-7.3980000000000001E-3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>49</v>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1.4983549435621251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="4">
-        <v>1.4983549435621251</v>
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1.5237000000000001</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>19.585570000000001</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>2.54628E-9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
         <v>5</v>
       </c>
-      <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" t="s">
-        <v>6</v>
-      </c>
       <c r="G51" t="s">
         <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>1.5237000000000001</v>
+        <v>15.92628</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
       </c>
-      <c r="F52" t="s">
-        <v>25</v>
-      </c>
       <c r="G52" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B53">
-        <v>19.585570000000001</v>
+        <v>11.6966</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B54">
-        <v>2.54628E-9</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B55">
-        <v>15.92628</v>
+        <v>5.3483199147628007E-10</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B56">
-        <v>11.6966</v>
+        <v>-1.2439E-2</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58">
-        <v>5.3483199147628007E-10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" t="s">
-        <v>36</v>
+      <c r="B58" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B59">
-        <v>-1.2439E-2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>48</v>
+        <v>1.4983549435621251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62">
-        <v>1.4983549435621251</v>
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
         <v>5</v>
       </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
-        <v>40</v>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>4</v>
+      </c>
+      <c r="H65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="B67">
+        <v>21.1966</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68">
+        <v>2.54628E-9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="B69">
+        <v>15.905519999999999</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E69" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G69" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>49</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>11.6966</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E70" t="s">
         <v>6</v>
@@ -1590,245 +1653,150 @@
         <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B71">
-        <v>21.1966</v>
+        <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B72">
-        <v>2.54628E-9</v>
+        <v>5.3483199147628007E-10</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B73">
-        <v>15.905519999999999</v>
+        <v>-1.2439E-2</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74">
-        <v>11.6966</v>
-      </c>
-      <c r="C74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>16</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76">
-        <v>5.3483199147628007E-10</v>
-      </c>
-      <c r="C76" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" t="s">
         <v>42</v>
       </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>43</v>
-      </c>
-      <c r="B77">
-        <v>-1.2439E-2</v>
-      </c>
-      <c r="C77" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" t="s">
-        <v>41</v>
-      </c>
-      <c r="E77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-    </row>
-    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-    </row>
-    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-    </row>
-    <row r="148" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-    </row>
-    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="1"/>
-    </row>
-    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-    </row>
-    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="1"/>
-    </row>
-    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-    </row>
-    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A220" s="1"/>
-    </row>
-    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-    </row>
-    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="1"/>
-    </row>
-    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-    </row>
-    <row r="275" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A275" s="1"/>
-    </row>
-    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
-    </row>
-    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A303" s="1"/>
+    </row>
+    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="116" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+    </row>
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="1"/>
+    </row>
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+    </row>
+    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="1"/>
+    </row>
+    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+    </row>
+    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+    </row>
+    <row r="244" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+    </row>
+    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A271" s="1"/>
+    </row>
+    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+    </row>
+    <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A299" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H303" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H299" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>